--- a/specifications/ADEE_spec.xlsx
+++ b/specifications/ADEE_spec.xlsx
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AUCSSLOG</t>
+          <t>AUCSLOG</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AUCSSDOSE</t>
+          <t>AUCSSDOS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AUCSSCATN</t>
+          <t>AUCSCATN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Derived</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
